--- a/uncertainty_models/UMCPVF_I2.xlsx
+++ b/uncertainty_models/UMCPVF_I2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970A763A-100E-4F9A-A2FC-A199285A9A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6916933-B982-44D3-9A3B-D579A0BC0673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>ModelType</t>
   </si>
   <si>
-    <t>I2</t>
-  </si>
-  <si>
     <t>RefWeek</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>W24</t>
+  </si>
+  <si>
+    <t>I1</t>
   </si>
 </sst>
 </file>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH38" sqref="AH38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,55 +764,55 @@
         <v>18</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1173,76 +1173,76 @@
         <v>19</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>6</v>
@@ -1295,45 +1295,45 @@
         <v>8</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="9" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="10" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="11" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="12" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -1689,81 +1689,81 @@
         <v>19</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Z12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AA12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AB12" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
@@ -1772,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>6</v>
@@ -1811,45 +1811,45 @@
         <v>8</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>11</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="15" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="16" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="17" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>11</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="18" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>11</v>
@@ -2205,81 +2205,81 @@
         <v>19</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="V18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="W18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Z18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AA18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AB18" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>11</v>
@@ -2288,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>6</v>
@@ -2327,40 +2327,40 @@
         <v>8</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2721,76 +2721,76 @@
         <v>19</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2804,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>6</v>
@@ -2843,45 +2843,45 @@
         <v>8</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>16</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="27" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>16</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="28" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>16</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="29" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>16</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="30" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>16</v>
@@ -3237,81 +3237,81 @@
         <v>19</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="S30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="W30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="X30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Y30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Z30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AA30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AB30" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>16</v>
@@ -3320,7 +3320,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>6</v>
@@ -3359,40 +3359,40 @@
         <v>8</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -3400,7 +3400,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>12</v>
@@ -3486,7 +3486,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -3572,7 +3572,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>12</v>
@@ -3658,7 +3658,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
@@ -3744,7 +3744,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
@@ -3753,76 +3753,76 @@
         <v>19</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="W36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="X36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Y36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Z36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AA36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AB36" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3830,13 +3830,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>6</v>
@@ -3875,48 +3875,48 @@
         <v>8</v>
       </c>
       <c r="Q37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
@@ -3999,10 +3999,10 @@
     </row>
     <row r="39" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="40" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -4171,10 +4171,10 @@
     </row>
     <row r="41" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
@@ -4257,10 +4257,10 @@
     </row>
     <row r="42" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -4269,90 +4269,90 @@
         <v>19</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="R42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="S42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="T42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="V42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="W42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="X42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Y42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Z42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AA42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AB42" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>6</v>
@@ -4391,48 +4391,48 @@
         <v>8</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>12</v>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="45" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -4601,10 +4601,10 @@
     </row>
     <row r="46" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>12</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="47" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>12</v>
@@ -4773,10 +4773,10 @@
     </row>
     <row r="48" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>12</v>
@@ -4785,90 +4785,90 @@
         <v>19</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="S48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="T48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="V48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="W48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="X48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Y48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Z48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AA48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="AB48" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>6</v>
@@ -4907,40 +4907,40 @@
         <v>8</v>
       </c>
       <c r="Q49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB49" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/uncertainty_models/UMCPVF_I2.xlsx
+++ b/uncertainty_models/UMCPVF_I2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRFB6324\Documents\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6916933-B982-44D3-9A3B-D579A0BC0673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$AB$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,13 +167,13 @@
     <t>W24</t>
   </si>
   <si>
-    <t>I1</t>
+    <t>I2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -418,12 +417,6 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -443,7 +436,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{67C88BE4-68CA-467E-B7CA-38DD11266473}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -720,11 +713,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,14 +808,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -901,8 +894,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -987,8 +980,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1073,8 +1066,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1083,7 +1076,7 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="6">
@@ -1159,8 +1152,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1178,75 +1171,75 @@
       <c r="F6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB6" s="16" t="s">
+      <c r="G6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:28" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1331,8 +1324,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1417,8 +1410,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1503,8 +1496,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1589,8 +1582,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1599,7 +1592,7 @@
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="6">
@@ -1675,8 +1668,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1694,75 +1687,75 @@
       <c r="F12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB12" s="16" t="s">
+      <c r="G12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:28" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1847,8 +1840,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1933,8 +1926,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2019,8 +2012,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2105,8 +2098,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2115,7 +2108,7 @@
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="6">
@@ -2191,8 +2184,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2210,84 +2203,84 @@
       <c r="F18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB18" s="16" t="s">
+      <c r="G18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -2363,14 +2356,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2449,8 +2442,8 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2535,8 +2528,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2621,8 +2614,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2631,7 +2624,7 @@
       <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="6">
@@ -2707,8 +2700,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2726,75 +2719,75 @@
       <c r="F24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB24" s="16" t="s">
+      <c r="G24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB24" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:28" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2879,8 +2872,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2965,8 +2958,8 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3051,8 +3044,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+    <row r="28" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3137,8 +3130,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3147,7 +3140,7 @@
       <c r="C29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="6">
@@ -3223,8 +3216,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3242,84 +3235,84 @@
       <c r="F30" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA30" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB30" s="16" t="s">
+      <c r="G30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB30" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -3395,14 +3388,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -3481,8 +3474,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+    <row r="33" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3567,8 +3560,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+    <row r="34" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3653,8 +3646,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+    <row r="35" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3663,7 +3656,7 @@
       <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="6">
@@ -3739,8 +3732,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3758,75 +3751,75 @@
       <c r="F36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA36" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB36" s="16" t="s">
+      <c r="G36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB36" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:28" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3911,8 +3904,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3997,8 +3990,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -4083,8 +4076,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -4169,8 +4162,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -4179,7 +4172,7 @@
       <c r="C41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="6">
@@ -4255,8 +4248,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -4274,84 +4267,84 @@
       <c r="F42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA42" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB42" s="16" t="s">
+      <c r="G42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB42" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
+    <row r="43" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="11" t="s">
@@ -4427,14 +4420,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -4513,8 +4506,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+    <row r="45" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -4599,8 +4592,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -4685,8 +4678,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+    <row r="47" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -4695,7 +4688,7 @@
       <c r="C47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="6">
@@ -4771,8 +4764,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+    <row r="48" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -4790,162 +4783,162 @@
       <c r="F48" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA48" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB48" s="16" t="s">
+      <c r="G48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="S48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB48" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+    <row r="49" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="R49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="T49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="U49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="V49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="W49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="X49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA49" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB49" s="27" t="s">
+      <c r="G49" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB49" s="25" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB49" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB49">
+  <autoFilter ref="A1:AB49">
+    <sortState ref="A2:AB49">
       <sortCondition ref="B1:B49"/>
     </sortState>
   </autoFilter>

--- a/uncertainty_models/UMCPVF_I2.xlsx
+++ b/uncertainty_models/UMCPVF_I2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRFB6324\Documents\SC_DSS_SIMU\uncertainty_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970A763A-100E-4F9A-A2FC-A199285A9A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$AB$49</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,6 +99,9 @@
     <t>ModelType</t>
   </si>
   <si>
+    <t>I2</t>
+  </si>
+  <si>
     <t>RefWeek</t>
   </si>
   <si>
@@ -166,14 +170,11 @@
   <si>
     <t>W24</t>
   </si>
-  <si>
-    <t>I2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,6 +418,12 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -436,7 +443,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{67C88BE4-68CA-467E-B7CA-38DD11266473}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -713,11 +720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:AB6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH38" sqref="AH38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,65 +764,65 @@
         <v>18</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -894,8 +901,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -980,8 +987,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1066,8 +1073,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1076,7 +1083,7 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="6">
@@ -1152,8 +1159,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1166,80 +1173,80 @@
         <v>19</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1249,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>6</v>
@@ -1288,45 +1295,45 @@
         <v>8</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>23</v>
+    <row r="8" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -1410,9 +1417,9 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>23</v>
+    <row r="9" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -1496,9 +1503,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>23</v>
+    <row r="10" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
@@ -1582,9 +1589,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>23</v>
+    <row r="11" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -1592,7 +1599,7 @@
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="6">
@@ -1668,9 +1675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>23</v>
+    <row r="12" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -1682,81 +1689,81 @@
         <v>19</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="V12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA12" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB12" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>23</v>
+    <row r="13" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
@@ -1765,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>6</v>
@@ -1804,45 +1811,45 @@
         <v>8</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>24</v>
+    <row r="14" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>11</v>
@@ -1926,9 +1933,9 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>24</v>
+    <row r="15" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
@@ -2012,9 +2019,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>24</v>
+    <row r="16" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
@@ -2098,9 +2105,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>24</v>
+    <row r="17" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>11</v>
@@ -2108,7 +2115,7 @@
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="6">
@@ -2184,9 +2191,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>24</v>
+    <row r="18" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>11</v>
@@ -2198,90 +2205,90 @@
         <v>19</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="X18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB18" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>20</v>
+      <c r="D19" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>6</v>
@@ -2320,50 +2327,50 @@
         <v>8</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2442,8 +2449,8 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2528,8 +2535,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2614,8 +2621,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2624,7 +2631,7 @@
       <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="6">
@@ -2700,8 +2707,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2714,80 +2721,80 @@
         <v>19</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="V24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="X24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB24" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2797,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>6</v>
@@ -2836,45 +2843,45 @@
         <v>8</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>23</v>
+    <row r="26" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>16</v>
@@ -2958,9 +2965,9 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>23</v>
+    <row r="27" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>16</v>
@@ -3044,9 +3051,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>23</v>
+    <row r="28" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>16</v>
@@ -3130,9 +3137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>23</v>
+    <row r="29" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>16</v>
@@ -3140,7 +3147,7 @@
       <c r="C29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="6">
@@ -3216,9 +3223,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>23</v>
+    <row r="30" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>16</v>
@@ -3230,90 +3237,90 @@
         <v>19</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="V30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="X30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB30" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="22" t="s">
+    <row r="31" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>20</v>
+      <c r="D31" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>6</v>
@@ -3352,50 +3359,50 @@
         <v>8</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -3474,12 +3481,12 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
@@ -3560,12 +3567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>12</v>
@@ -3646,17 +3653,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="6">
@@ -3732,12 +3739,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
@@ -3746,90 +3753,90 @@
         <v>19</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="V36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="X36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB36" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB36" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>6</v>
@@ -3868,48 +3875,48 @@
         <v>8</v>
       </c>
       <c r="Q37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>24</v>
+    <row r="38" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
@@ -3990,12 +3997,12 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>24</v>
+    <row r="39" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -4076,12 +4083,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>24</v>
+    <row r="40" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -4162,17 +4169,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>24</v>
+    <row r="41" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="6">
@@ -4248,12 +4255,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>24</v>
+    <row r="42" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -4262,90 +4269,90 @@
         <v>19</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="V42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="X42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB42" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB42" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="22" t="s">
+    <row r="43" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="25" t="s">
         <v>21</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>20</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>6</v>
@@ -4384,50 +4391,50 @@
         <v>8</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB43" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="17" t="s">
+    <row r="44" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -4506,12 +4513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>25</v>
+    <row r="45" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -4592,12 +4599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>25</v>
+    <row r="46" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>12</v>
@@ -4678,17 +4685,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>25</v>
+    <row r="47" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="6">
@@ -4764,12 +4771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>25</v>
+    <row r="48" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>12</v>
@@ -4778,167 +4785,167 @@
         <v>19</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="R48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="S48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="T48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="U48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="V48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="X48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB48" s="14" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB48" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="22" t="s">
+    <row r="49" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="24" t="s">
+      <c r="D49" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="R49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="S49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="U49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="V49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="W49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="X49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA49" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB49" s="25" t="s">
-        <v>31</v>
+      <c r="G49" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA49" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB49" s="27" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB49">
-    <sortState ref="A2:AB49">
+  <autoFilter ref="A1:AB49" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB49">
       <sortCondition ref="B1:B49"/>
     </sortState>
   </autoFilter>

--- a/uncertainty_models/UMCPVF_I2.xlsx
+++ b/uncertainty_models/UMCPVF_I2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970A763A-100E-4F9A-A2FC-A199285A9A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8673C800-DF66-4CF7-9727-9D79BF5350D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH38" sqref="AH38"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,10 +828,10 @@
       <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
         <v>0</v>
       </c>
       <c r="G2" s="7">
@@ -1344,10 +1344,10 @@
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>0</v>
       </c>
       <c r="G8" s="7">
@@ -1860,10 +1860,10 @@
       <c r="D14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
         <v>0</v>
       </c>
       <c r="G14" s="7">

--- a/uncertainty_models/UMCPVF_I2.xlsx
+++ b/uncertainty_models/UMCPVF_I2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8673C800-DF66-4CF7-9727-9D79BF5350D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FB5CE2-3BEE-475A-AFE9-3ECA305BC893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,34 +835,34 @@
         <v>0</v>
       </c>
       <c r="G2" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="H2" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="I2" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="J2" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="K2" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="L2" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="M2" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="N2" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="O2" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="P2" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q2" s="7">
         <v>-0.05</v>
@@ -1351,34 +1351,34 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="H8" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="I8" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="J8" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="K8" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="L8" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="M8" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="N8" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="O8" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="P8" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q8" s="7">
         <v>-0.05</v>
@@ -1867,34 +1867,34 @@
         <v>0</v>
       </c>
       <c r="G14" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="H14" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="I14" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="J14" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="K14" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="L14" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="M14" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="N14" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="O14" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="P14" s="7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q14" s="7">
         <v>-0.05</v>

--- a/uncertainty_models/UMCPVF_I2.xlsx
+++ b/uncertainty_models/UMCPVF_I2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiss\Nextcloud\SC_DSS_SIMU\uncertainty_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FB5CE2-3BEE-475A-AFE9-3ECA305BC893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C334A51-4166-4F98-8F3C-9EC8C04FD59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="405" windowWidth="20430" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,9 +406,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,13 +430,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,14 +812,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:28" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -834,59 +831,59 @@
       <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="H2" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="I2" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="J2" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="K2" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="L2" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="M2" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="N2" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="O2" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="P2" s="7">
-        <v>-0.25</v>
+      <c r="G2" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="I2" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="J2" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="M2" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="N2" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="O2" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="P2" s="6">
+        <v>-0.5</v>
       </c>
       <c r="Q2" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="R2" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="S2" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="T2" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="U2" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="V2" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="W2" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="X2" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="Y2" s="7">
         <v>-0.05</v>
@@ -901,8 +898,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -921,58 +918,58 @@
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H3" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I3" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J3" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="K3" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L3" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M3" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N3" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O3" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="P3" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Q3" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="R3" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="S3" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="T3" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="U3" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="V3" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="W3" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="X3" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="Y3" s="6">
         <v>0</v>
@@ -987,8 +984,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1073,8 +1070,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1083,7 +1080,7 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="6">
@@ -1092,75 +1089,75 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>0</v>
-      </c>
-      <c r="R5" s="13">
-        <v>0</v>
-      </c>
-      <c r="S5" s="13">
-        <v>0</v>
-      </c>
-      <c r="T5" s="13">
-        <v>0</v>
-      </c>
-      <c r="U5" s="13">
-        <v>0</v>
-      </c>
-      <c r="V5" s="13">
-        <v>0</v>
-      </c>
-      <c r="W5" s="13">
-        <v>0</v>
-      </c>
-      <c r="X5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="13">
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
+        <v>0</v>
+      </c>
+      <c r="U5" s="12">
+        <v>0</v>
+      </c>
+      <c r="V5" s="12">
+        <v>0</v>
+      </c>
+      <c r="W5" s="12">
+        <v>0</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1172,81 +1169,81 @@
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB6" s="16" t="s">
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:28" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1258,81 +1255,81 @@
       <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB7" s="12" t="s">
+      <c r="G7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1350,59 +1347,59 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="H8" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="I8" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="J8" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="K8" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="L8" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="M8" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="N8" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="O8" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="P8" s="7">
-        <v>-0.25</v>
+      <c r="G8" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="L8" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="M8" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="N8" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="O8" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="P8" s="6">
+        <v>-0.5</v>
       </c>
       <c r="Q8" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="R8" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="S8" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="T8" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="U8" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="V8" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="W8" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="X8" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="Y8" s="7">
         <v>-0.05</v>
@@ -1417,8 +1414,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1437,58 +1434,58 @@
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H9" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I9" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J9" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="K9" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L9" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M9" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N9" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O9" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="P9" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Q9" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="R9" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="S9" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="T9" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="U9" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="V9" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="W9" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="X9" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="Y9" s="6">
         <v>0</v>
@@ -1503,8 +1500,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1589,8 +1586,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1599,7 +1596,7 @@
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="6">
@@ -1608,75 +1605,75 @@
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>0</v>
-      </c>
-      <c r="R11" s="13">
-        <v>0</v>
-      </c>
-      <c r="S11" s="13">
-        <v>0</v>
-      </c>
-      <c r="T11" s="13">
-        <v>0</v>
-      </c>
-      <c r="U11" s="13">
-        <v>0</v>
-      </c>
-      <c r="V11" s="13">
-        <v>0</v>
-      </c>
-      <c r="W11" s="13">
-        <v>0</v>
-      </c>
-      <c r="X11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="13">
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0</v>
+      </c>
+      <c r="T11" s="12">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0</v>
+      </c>
+      <c r="V11" s="12">
+        <v>0</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1688,81 +1685,81 @@
       <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB12" s="16" t="s">
+      <c r="E12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:28" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1774,81 +1771,81 @@
       <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB13" s="12" t="s">
+      <c r="G13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB13" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1860,65 +1857,65 @@
       <c r="D14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="H14" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="J14" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="K14" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="L14" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="M14" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="N14" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="O14" s="7">
-        <v>-0.25</v>
-      </c>
-      <c r="P14" s="7">
-        <v>-0.25</v>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="H14" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="I14" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="J14" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="K14" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="L14" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="M14" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="N14" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="O14" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="P14" s="6">
+        <v>-0.5</v>
       </c>
       <c r="Q14" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="R14" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="S14" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="T14" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="U14" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="V14" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="W14" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="X14" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="Y14" s="7">
         <v>-0.05</v>
@@ -1933,8 +1930,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1953,58 +1950,58 @@
         <v>0</v>
       </c>
       <c r="G15" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H15" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I15" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J15" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="K15" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L15" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M15" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N15" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O15" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="P15" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Q15" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="R15" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="S15" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="T15" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="U15" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="V15" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="W15" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="X15" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="Y15" s="6">
         <v>0</v>
@@ -2019,8 +2016,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2105,8 +2102,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2115,7 +2112,7 @@
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="6">
@@ -2124,75 +2121,75 @@
       <c r="F17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
-        <v>0</v>
-      </c>
-      <c r="L17" s="13">
-        <v>0</v>
-      </c>
-      <c r="M17" s="13">
-        <v>0</v>
-      </c>
-      <c r="N17" s="13">
-        <v>0</v>
-      </c>
-      <c r="O17" s="13">
-        <v>0</v>
-      </c>
-      <c r="P17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>0</v>
-      </c>
-      <c r="R17" s="13">
-        <v>0</v>
-      </c>
-      <c r="S17" s="13">
-        <v>0</v>
-      </c>
-      <c r="T17" s="13">
-        <v>0</v>
-      </c>
-      <c r="U17" s="13">
-        <v>0</v>
-      </c>
-      <c r="V17" s="13">
-        <v>0</v>
-      </c>
-      <c r="W17" s="13">
-        <v>0</v>
-      </c>
-      <c r="X17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="13">
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <v>0</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0</v>
+      </c>
+      <c r="T17" s="12">
+        <v>0</v>
+      </c>
+      <c r="U17" s="12">
+        <v>0</v>
+      </c>
+      <c r="V17" s="12">
+        <v>0</v>
+      </c>
+      <c r="W17" s="12">
+        <v>0</v>
+      </c>
+      <c r="X17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2204,182 +2201,182 @@
       <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB18" s="16" t="s">
+      <c r="E18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB19" s="12" t="s">
+      <c r="G19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB19" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:28" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
         <v>0</v>
       </c>
       <c r="G20" s="7">
@@ -2413,28 +2410,28 @@
         <v>0</v>
       </c>
       <c r="Q20" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="R20" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="S20" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="T20" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="U20" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="V20" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="W20" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="X20" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="Y20" s="7">
         <v>-0.1</v>
@@ -2449,8 +2446,8 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+    <row r="21" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2499,28 +2496,28 @@
         <v>0</v>
       </c>
       <c r="Q21" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R21" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="S21" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="T21" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="U21" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="V21" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="W21" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="X21" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Y21" s="6">
         <v>0</v>
@@ -2535,8 +2532,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2555,58 +2552,58 @@
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H22" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I22" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J22" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K22" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L22" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M22" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N22" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O22" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P22" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q22" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R22" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S22" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T22" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U22" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V22" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W22" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X22" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y22" s="6">
         <v>0</v>
@@ -2621,8 +2618,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2631,7 +2628,7 @@
       <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="6">
@@ -2640,75 +2637,75 @@
       <c r="F23" s="6">
         <v>0</v>
       </c>
-      <c r="G23" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="I23" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="N23" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="O23" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="P23" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="Q23" s="13">
+      <c r="G23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Q23" s="12">
         <v>0.5</v>
       </c>
-      <c r="R23" s="13">
+      <c r="R23" s="12">
         <v>0.5</v>
       </c>
-      <c r="S23" s="13">
+      <c r="S23" s="12">
         <v>0.5</v>
       </c>
-      <c r="T23" s="13">
+      <c r="T23" s="12">
         <v>0.5</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="12">
         <v>0.5</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="12">
         <v>0.5</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W23" s="12">
         <v>0.5</v>
       </c>
-      <c r="X23" s="13">
+      <c r="X23" s="12">
         <v>0.5</v>
       </c>
-      <c r="Y23" s="13">
+      <c r="Y23" s="12">
         <v>0.5</v>
       </c>
-      <c r="Z23" s="13">
+      <c r="Z23" s="12">
         <v>0.5</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AA23" s="12">
         <v>0.5</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2720,81 +2717,81 @@
       <c r="D24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="X24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB24" s="16" t="s">
+      <c r="E24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:28" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2806,81 +2803,81 @@
       <c r="D25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB25" s="12" t="s">
+      <c r="G25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB25" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2892,10 +2889,10 @@
       <c r="D26" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
         <v>0</v>
       </c>
       <c r="G26" s="7">
@@ -2929,28 +2926,28 @@
         <v>0</v>
       </c>
       <c r="Q26" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="R26" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="S26" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="T26" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="U26" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="V26" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="W26" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="X26" s="7">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="Y26" s="7">
         <v>-0.1</v>
@@ -2965,8 +2962,8 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3015,28 +3012,28 @@
         <v>0</v>
       </c>
       <c r="Q27" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="R27" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="S27" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="T27" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="U27" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="V27" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="W27" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="X27" s="6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="Y27" s="6">
         <v>0</v>
@@ -3051,8 +3048,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+    <row r="28" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3071,58 +3068,58 @@
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H28" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I28" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J28" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K28" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L28" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M28" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N28" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O28" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P28" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q28" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R28" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S28" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T28" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U28" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V28" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W28" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X28" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y28" s="6">
         <v>0</v>
@@ -3137,8 +3134,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3147,7 +3144,7 @@
       <c r="C29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="6">
@@ -3156,75 +3153,75 @@
       <c r="F29" s="6">
         <v>0</v>
       </c>
-      <c r="G29" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="K29" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="L29" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="M29" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="N29" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="O29" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="P29" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="Q29" s="13">
+      <c r="G29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="N29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Q29" s="12">
         <v>0.5</v>
       </c>
-      <c r="R29" s="13">
+      <c r="R29" s="12">
         <v>0.5</v>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="12">
         <v>0.5</v>
       </c>
-      <c r="T29" s="13">
+      <c r="T29" s="12">
         <v>0.5</v>
       </c>
-      <c r="U29" s="13">
+      <c r="U29" s="12">
         <v>0.5</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="12">
         <v>0.5</v>
       </c>
-      <c r="W29" s="13">
+      <c r="W29" s="12">
         <v>0.5</v>
       </c>
-      <c r="X29" s="13">
+      <c r="X29" s="12">
         <v>0.5</v>
       </c>
-      <c r="Y29" s="13">
+      <c r="Y29" s="12">
         <v>0.5</v>
       </c>
-      <c r="Z29" s="13">
+      <c r="Z29" s="12">
         <v>0.5</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AA29" s="12">
         <v>0.5</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AB29" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3236,182 +3233,182 @@
       <c r="D30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="W30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="X30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB30" s="16" t="s">
+      <c r="E30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB30" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB31" s="12" t="s">
+      <c r="G31" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB31" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:28" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
         <v>0</v>
       </c>
       <c r="G32" s="7">
@@ -3445,28 +3442,28 @@
         <v>0</v>
       </c>
       <c r="Q32" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="R32" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="S32" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="T32" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="U32" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="V32" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="W32" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="X32" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="Y32" s="7">
         <v>-0.05</v>
@@ -3481,8 +3478,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+    <row r="33" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3531,28 +3528,28 @@
         <v>0</v>
       </c>
       <c r="Q33" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="R33" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="S33" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="T33" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="U33" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="V33" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="W33" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="X33" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="Y33" s="6">
         <v>0</v>
@@ -3567,8 +3564,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+    <row r="34" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3587,58 +3584,58 @@
         <v>0</v>
       </c>
       <c r="G34" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H34" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I34" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J34" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K34" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L34" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M34" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N34" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O34" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P34" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q34" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R34" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S34" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T34" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U34" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="V34" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W34" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="X34" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y34" s="6">
         <v>0</v>
@@ -3653,8 +3650,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+    <row r="35" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3663,7 +3660,7 @@
       <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="6">
@@ -3672,75 +3669,75 @@
       <c r="F35" s="6">
         <v>0</v>
       </c>
-      <c r="G35" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="H35" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="I35" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="J35" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="K35" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="L35" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="M35" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="N35" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="O35" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="P35" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="Q35" s="13">
+      <c r="G35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="M35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="R35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="T35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="U35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="V35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="W35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="X35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Y35" s="12">
         <v>0.05</v>
       </c>
-      <c r="R35" s="13">
+      <c r="Z35" s="12">
         <v>0.05</v>
       </c>
-      <c r="S35" s="13">
+      <c r="AA35" s="12">
         <v>0.05</v>
       </c>
-      <c r="T35" s="13">
+      <c r="AB35" s="12">
         <v>0.05</v>
       </c>
-      <c r="U35" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="V35" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="W35" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="X35" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="Y35" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="Z35" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="AA35" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="AB35" s="13">
-        <v>0.05</v>
-      </c>
     </row>
-    <row r="36" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3752,81 +3749,81 @@
       <c r="D36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="W36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="X36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB36" s="16" t="s">
+      <c r="E36" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB36" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:28" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3838,81 +3835,81 @@
       <c r="D37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB37" s="12" t="s">
+      <c r="G37" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB37" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3924,10 +3921,10 @@
       <c r="D38" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
         <v>0</v>
       </c>
       <c r="G38" s="7">
@@ -3961,28 +3958,28 @@
         <v>0</v>
       </c>
       <c r="Q38" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="R38" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="S38" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="T38" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="U38" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="V38" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="W38" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="X38" s="7">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="Y38" s="7">
         <v>-0.05</v>
@@ -3997,8 +3994,8 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -4047,28 +4044,28 @@
         <v>0</v>
       </c>
       <c r="Q39" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="R39" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="S39" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="T39" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="U39" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="V39" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="W39" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="X39" s="6">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="Y39" s="6">
         <v>0</v>
@@ -4083,8 +4080,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -4103,58 +4100,58 @@
         <v>0</v>
       </c>
       <c r="G40" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H40" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I40" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J40" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K40" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L40" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M40" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N40" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O40" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P40" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q40" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R40" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S40" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T40" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U40" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="V40" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W40" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="X40" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y40" s="6">
         <v>0</v>
@@ -4169,8 +4166,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -4179,7 +4176,7 @@
       <c r="C41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="6">
@@ -4188,75 +4185,75 @@
       <c r="F41" s="6">
         <v>0</v>
       </c>
-      <c r="G41" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="H41" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="I41" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="J41" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="K41" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="L41" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="M41" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="N41" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="O41" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="P41" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="Q41" s="13">
+      <c r="G41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="M41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="O41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="P41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="R41" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="S41" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="T41" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="U41" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="V41" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="W41" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="X41" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="Y41" s="12">
         <v>0.05</v>
       </c>
-      <c r="R41" s="13">
+      <c r="Z41" s="12">
         <v>0.05</v>
       </c>
-      <c r="S41" s="13">
+      <c r="AA41" s="12">
         <v>0.05</v>
       </c>
-      <c r="T41" s="13">
+      <c r="AB41" s="12">
         <v>0.05</v>
       </c>
-      <c r="U41" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="V41" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="W41" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="X41" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="Y41" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="Z41" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="AA41" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="AB41" s="13">
-        <v>0.05</v>
-      </c>
     </row>
-    <row r="42" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -4268,182 +4265,182 @@
       <c r="D42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="W42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="X42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB42" s="16" t="s">
+      <c r="E42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB42" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
+    <row r="43" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB43" s="12" t="s">
+      <c r="G43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB43" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:28" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
         <v>0</v>
       </c>
       <c r="G44" s="7">
@@ -4513,8 +4510,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+    <row r="45" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -4599,8 +4596,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -4685,8 +4682,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+    <row r="47" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -4695,7 +4692,7 @@
       <c r="C47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="6">
@@ -4704,75 +4701,75 @@
       <c r="F47" s="6">
         <v>0</v>
       </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>0</v>
-      </c>
-      <c r="K47" s="13">
-        <v>0</v>
-      </c>
-      <c r="L47" s="13">
-        <v>0</v>
-      </c>
-      <c r="M47" s="13">
-        <v>0</v>
-      </c>
-      <c r="N47" s="13">
-        <v>0</v>
-      </c>
-      <c r="O47" s="13">
-        <v>0</v>
-      </c>
-      <c r="P47" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="13">
-        <v>0</v>
-      </c>
-      <c r="R47" s="13">
-        <v>0</v>
-      </c>
-      <c r="S47" s="13">
-        <v>0</v>
-      </c>
-      <c r="T47" s="13">
-        <v>0</v>
-      </c>
-      <c r="U47" s="13">
-        <v>0</v>
-      </c>
-      <c r="V47" s="13">
-        <v>0</v>
-      </c>
-      <c r="W47" s="13">
-        <v>0</v>
-      </c>
-      <c r="X47" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="13">
+      <c r="G47" s="12">
+        <v>0</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0</v>
+      </c>
+      <c r="K47" s="12">
+        <v>0</v>
+      </c>
+      <c r="L47" s="12">
+        <v>0</v>
+      </c>
+      <c r="M47" s="12">
+        <v>0</v>
+      </c>
+      <c r="N47" s="12">
+        <v>0</v>
+      </c>
+      <c r="O47" s="12">
+        <v>0</v>
+      </c>
+      <c r="P47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>0</v>
+      </c>
+      <c r="R47" s="12">
+        <v>0</v>
+      </c>
+      <c r="S47" s="12">
+        <v>0</v>
+      </c>
+      <c r="T47" s="12">
+        <v>0</v>
+      </c>
+      <c r="U47" s="12">
+        <v>0</v>
+      </c>
+      <c r="V47" s="12">
+        <v>0</v>
+      </c>
+      <c r="W47" s="12">
+        <v>0</v>
+      </c>
+      <c r="X47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+    <row r="48" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -4784,162 +4781,162 @@
       <c r="D48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="V48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="W48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="X48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB48" s="16" t="s">
+      <c r="E48" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB48" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+    <row r="49" spans="1:28" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="R49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="S49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="T49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="U49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="V49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="W49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="X49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB49" s="27" t="s">
+      <c r="G49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y49" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z49" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA49" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB49" s="25" t="s">
         <v>32</v>
       </c>
     </row>
